--- a/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -3986,7 +3986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>207</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>315</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>355</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>472</v>
       </c>
@@ -10058,12 +10058,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO70">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
